--- a/Types of Bugs/Test Cases  - Types of Bugs .xlsx
+++ b/Types of Bugs/Test Cases  - Types of Bugs .xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20415"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\OTHERS\AcademyBugs - Testing\Types of Bugs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Education\Software Testing\AcademyBugs - Manual Testing\Types of Bugs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC6A4AB0-2B57-422A-B38F-CCE5CC00CD72}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24BC639F-7129-489A-9071-655C850FB094}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -127,7 +127,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>Project Name</t>
   </si>
@@ -244,9 +244,6 @@
   </si>
   <si>
     <t>The Page Should Have Types of Bugs</t>
-  </si>
-  <si>
-    <t>To be in  the Types of Bugs page</t>
   </si>
   <si>
     <t>A list of different Types of Bugs Shown In The Page</t>
@@ -340,6 +337,12 @@
   <si>
     <t>1- Go To https://academybugs.com/types/
 2-  Click On Any Example of Bug</t>
+  </si>
+  <si>
+    <t>Ensure the Types of Bugs exists on the Types of Bugs page</t>
+  </si>
+  <si>
+    <t>Ensure the current page is the Types of Bugs page</t>
   </si>
 </sst>
 </file>
@@ -347,7 +350,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -581,6 +584,51 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -595,51 +643,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -938,8 +941,8 @@
   </sheetPr>
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:I1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11:I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -956,21 +959,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
+      <c r="A1" s="29"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="34" t="s">
         <v>36</v>
       </c>
@@ -982,10 +985,10 @@
       <c r="I2" s="35"/>
     </row>
     <row r="3" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="31"/>
       <c r="C3" s="34" t="s">
         <v>29</v>
       </c>
@@ -997,10 +1000,10 @@
       <c r="I3" s="35"/>
     </row>
     <row r="4" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="32" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="34" t="s">
         <v>3</v>
       </c>
@@ -1012,10 +1015,10 @@
       <c r="I4" s="35"/>
     </row>
     <row r="5" spans="1:10" ht="24.75" customHeight="1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="16"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="36">
         <v>45780</v>
       </c>
@@ -1059,26 +1062,26 @@
       <c r="A7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="20" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="31" t="s">
+      <c r="D7" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" s="23"/>
+      <c r="G7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="8" t="s">
+      <c r="H7" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I7" s="22" t="s">
+      <c r="I7" s="17" t="s">
         <v>15</v>
       </c>
     </row>
@@ -1086,89 +1089,89 @@
       <c r="A8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="21"/>
       <c r="C8" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="32"/>
+      <c r="D8" s="27"/>
       <c r="E8" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" s="29"/>
+        <v>66</v>
+      </c>
+      <c r="F8" s="24"/>
       <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="H8" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="I8" s="23"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:10" ht="122.25" customHeight="1">
       <c r="A9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="26"/>
+      <c r="B9" s="21"/>
       <c r="C9" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="32"/>
+        <v>62</v>
+      </c>
+      <c r="D9" s="27"/>
       <c r="E9" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" s="29"/>
+        <v>66</v>
+      </c>
+      <c r="F9" s="24"/>
       <c r="G9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="H9" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="23"/>
+      <c r="I9" s="18"/>
     </row>
     <row r="10" spans="1:10" ht="118.5" customHeight="1">
       <c r="A10" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="27"/>
+      <c r="B10" s="22"/>
       <c r="C10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="28"/>
+      <c r="E10" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F10" s="25"/>
+      <c r="G10" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="9" t="s">
+      <c r="H10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="H10" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I10" s="24"/>
+      <c r="I10" s="19"/>
     </row>
     <row r="11" spans="1:10" ht="129" customHeight="1">
       <c r="A11" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="20" t="s">
         <v>37</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>39</v>
+      <c r="D11" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="28"/>
+        <v>68</v>
+      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="8" t="s">
         <v>34</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="22" t="s">
+      <c r="I11" s="17" t="s">
         <v>15</v>
       </c>
       <c r="J11" s="12"/>
@@ -1177,163 +1180,163 @@
       <c r="A12" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="26"/>
+      <c r="B12" s="21"/>
       <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="32"/>
+      <c r="D12" s="27"/>
       <c r="E12" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="29"/>
+        <v>68</v>
+      </c>
+      <c r="F12" s="24"/>
       <c r="G12" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="H12" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" s="23"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="12"/>
     </row>
     <row r="13" spans="1:10" ht="150" customHeight="1">
       <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="26"/>
+      <c r="B13" s="21"/>
       <c r="C13" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="24"/>
+      <c r="G13" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="29"/>
-      <c r="G13" s="8" t="s">
+      <c r="H13" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="H13" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="23"/>
+      <c r="I13" s="18"/>
       <c r="J13" s="12"/>
     </row>
     <row r="14" spans="1:10" ht="109.5" customHeight="1">
       <c r="A14" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="26"/>
+      <c r="B14" s="21"/>
       <c r="C14" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F14" s="24"/>
+      <c r="G14" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>53</v>
-      </c>
-      <c r="I14" s="23"/>
+      <c r="I14" s="18"/>
       <c r="J14" s="12"/>
     </row>
     <row r="15" spans="1:10" ht="102" customHeight="1">
       <c r="A15" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="26"/>
+      <c r="B15" s="21"/>
       <c r="C15" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F15" s="24"/>
+      <c r="G15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="8" t="s">
+      <c r="H15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="I15" s="23"/>
+      <c r="I15" s="18"/>
     </row>
     <row r="16" spans="1:10" ht="121.5" customHeight="1">
       <c r="A16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="26"/>
+      <c r="B16" s="21"/>
       <c r="C16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F16" s="24"/>
+      <c r="G16" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="D16" s="32"/>
-      <c r="E16" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="8" t="s">
+      <c r="H16" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="H16" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="I16" s="23"/>
+      <c r="I16" s="18"/>
     </row>
     <row r="17" spans="1:9" s="12" customFormat="1" ht="121.5" customHeight="1">
       <c r="A17" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="27"/>
+      <c r="B17" s="22"/>
       <c r="C17" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="28"/>
+      <c r="E17" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="F17" s="25"/>
+      <c r="G17" s="8" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="30"/>
-      <c r="G17" s="8" t="s">
+      <c r="H17" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="H17" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="I17" s="23"/>
+      <c r="I17" s="18"/>
     </row>
     <row r="18" spans="1:9" ht="12.75">
-      <c r="A18" s="19"/>
-      <c r="B18" s="20"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
-      <c r="F18" s="19"/>
-      <c r="G18" s="19"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" ht="12.75">
-      <c r="A19" s="20"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="20"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="15"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="12.75">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="21"/>
-      <c r="G20" s="21"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="21"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
     </row>
     <row r="21" spans="1:9" ht="12.75"/>
     <row r="22" spans="1:9" ht="12.75"/>
@@ -1351,6 +1354,15 @@
     <row r="34" ht="12.75"/>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="C2:I2"/>
+    <mergeCell ref="C3:I3"/>
+    <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C5:I5"/>
     <mergeCell ref="A18:I20"/>
     <mergeCell ref="I7:I10"/>
     <mergeCell ref="B7:B10"/>
@@ -1360,15 +1372,6 @@
     <mergeCell ref="F7:F10"/>
     <mergeCell ref="B11:B17"/>
     <mergeCell ref="D11:D17"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="C2:I2"/>
-    <mergeCell ref="C3:I3"/>
-    <mergeCell ref="C4:I4"/>
-    <mergeCell ref="C5:I5"/>
   </mergeCells>
   <conditionalFormatting sqref="I7">
     <cfRule type="cellIs" dxfId="7" priority="41" operator="equal">
